--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_0_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_0_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>847105.7804605084</v>
+        <v>913329.0013057365</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>263195.8053336226</v>
+        <v>246528.8748133123</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11762410.58428957</v>
+        <v>11783336.69528065</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7544682.577884519</v>
+        <v>7530814.729500925</v>
       </c>
     </row>
     <row r="11">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C2" t="n">
-        <v>40.47627913313511</v>
-      </c>
       <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -682,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,10 +758,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>29.05241763862477</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -791,10 +791,10 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>55.57566235103572</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -873,16 +873,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,13 +904,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -949,19 +949,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>190.3453970742849</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1025,25 +1025,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>164.0838800822113</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="7">
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
-        <v>103.0088977318019</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>11.86372679529251</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="9">
@@ -1217,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1229,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>87.38033727746351</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1265,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -1274,10 +1274,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>69.90197782146217</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1378,13 +1378,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
         <v>276.1565137023555</v>
       </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
       <c r="G11" t="n">
-        <v>20.75911149906594</v>
+        <v>243.2386572690346</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1423,22 +1423,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>222.4795457699687</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
         <v>276.1565137023555</v>
-      </c>
-      <c r="W11" t="n">
-        <v>276.1565137023555</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1451,13 +1451,13 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>162.9651974974306</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1466,10 +1466,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>86.80307722268739</v>
+        <v>18.11186662957354</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1505,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9364262421938</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1514,10 +1514,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1584,10 +1584,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>175.1311939478779</v>
       </c>
       <c r="V13" t="n">
-        <v>175.1311939478779</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1615,10 +1615,10 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>105.3837270558563</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>39.40475951516318</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1685,28 +1685,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>136.6429625774031</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>79.48828795510497</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>65.27666136637444</v>
+        <v>32.30018441573161</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,13 +1736,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>158.6706769332458</v>
+        <v>163.3413660663108</v>
       </c>
       <c r="T15" t="n">
-        <v>197.341002096764</v>
+        <v>198.35454715303</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8952929634875</v>
+        <v>225.9118361363319</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1773,10 +1773,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>111.7480581774141</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>160.3641786191053</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1827,13 +1827,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>78.22427286268501</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,22 +1843,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>325.9867102795468</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>413.9934051322451</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1891,19 +1891,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>67.62176764444244</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>217.3642470580309</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>125.3763766170197</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1937,13 +1937,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.6429625774031</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H18" t="n">
-        <v>105.4695617893551</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,16 +1970,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S18" t="n">
-        <v>31.43288081550311</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T18" t="n">
-        <v>197.341002096764</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8952929634875</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2007,22 +2007,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="G19" t="n">
-        <v>157.6193732298257</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>137.7881176937059</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2061,10 +2061,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2089,13 +2089,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>333.4054520543804</v>
       </c>
       <c r="G20" t="n">
-        <v>413.9934051322451</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2128,25 +2128,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>67.62176764444244</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>217.3642470580309</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>125.3763766170197</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2174,13 +2174,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>136.6429625774031</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H21" t="n">
-        <v>71.62578123848343</v>
+        <v>104.3883541553069</v>
       </c>
       <c r="I21" t="n">
-        <v>65.27666136637444</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,16 +2207,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>49.71123688229333</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T21" t="n">
-        <v>197.341002096764</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8952929634875</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2244,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>7.863600824633009</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>150.8852840987082</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2869936420407</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2304,10 +2304,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>1.032773951870249</v>
       </c>
     </row>
     <row r="23">
@@ -2317,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>221.0021786982958</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2365,19 +2365,19 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>222.0968321060114</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2417,7 +2417,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
-        <v>61.42221998250752</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229251</v>
       </c>
       <c r="S24" t="n">
         <v>156.5912426325231</v>
@@ -2481,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
-        <v>120.0258340400108</v>
+        <v>197.2982592812052</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2535,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2557,25 +2557,25 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>176.6843914188427</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2614,13 +2614,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>209.5972717395336</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2651,10 +2651,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H27" t="n">
-        <v>104.3883541553069</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S27" t="n">
         <v>156.5912426325231</v>
@@ -2721,19 +2721,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>81.25819606329408</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2772,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>226.7424293409076</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2797,10 +2797,10 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>284.3192806430691</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2809,7 +2809,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2839,13 +2839,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
         <v>251.2241675082893</v>
@@ -2854,13 +2854,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>290.5283745868796</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2888,10 +2888,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H30" t="n">
-        <v>104.3883541553069</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S30" t="n">
         <v>156.5912426325231</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>76.48464164091926</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S31" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3009,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>11.00429467105817</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3028,13 +3028,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>275.4805812731078</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3088,7 +3088,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>297.5642569908806</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250752</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S33" t="n">
         <v>156.5912426325231</v>
@@ -3198,16 +3198,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>100.5344742103486</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3243,10 +3243,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3268,13 +3268,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3283,7 +3283,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>57.30159287878488</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3313,25 +3313,25 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>9.012067248099214</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3365,7 +3365,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250752</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3426,19 +3426,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>59.72683757586842</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3486,10 +3486,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>274.4246847141209</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3508,19 +3508,19 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>280.1033070984082</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3550,16 +3550,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>277.5793989422202</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3602,7 +3602,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250752</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3663,16 +3663,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>62.62684798287867</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>81.25819606329414</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3742,10 +3742,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>221.002178698296</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3805,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>159.5623709710783</v>
       </c>
     </row>
     <row r="42">
@@ -3833,13 +3833,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231963</v>
       </c>
       <c r="H42" t="n">
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3903,16 +3903,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>43.86617416758063</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>83.59830597394803</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3921,7 +3921,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3960,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3982,22 +3982,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>174.9183148143577</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>95.09774413911154</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>54.47840257481172</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4039,13 +4039,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4076,7 +4076,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229251</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4140,10 +4140,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>141.3236091729814</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>58.41971245821883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>315.6850394389064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C2" t="n">
-        <v>274.7999090013961</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D2" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E2" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F2" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4360,22 +4360,22 @@
         <v>802.5825927271064</v>
       </c>
       <c r="T2" t="n">
-        <v>802.5825927271064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U2" t="n">
-        <v>802.5825927271064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V2" t="n">
-        <v>802.5825927271064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W2" t="n">
-        <v>802.5825927271064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X2" t="n">
-        <v>802.5825927271064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y2" t="n">
-        <v>559.1338160830064</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C3" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D3" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E3" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4439,22 +4439,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U3" t="n">
-        <v>735.8335372470253</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V3" t="n">
-        <v>500.6814290152826</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W3" t="n">
-        <v>257.2326523711826</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X3" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y3" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="4">
@@ -4521,13 +4521,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X4" t="n">
         <v>19.28114311021272</v>
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>31.35113235729608</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C5" t="n">
-        <v>31.35113235729608</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D5" t="n">
-        <v>31.35113235729608</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E5" t="n">
-        <v>31.35113235729608</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F5" t="n">
-        <v>31.35113235729608</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>761.6974622895962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U5" t="n">
-        <v>518.2486856454962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V5" t="n">
-        <v>274.7999090013961</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W5" t="n">
-        <v>274.7999090013961</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X5" t="n">
-        <v>31.35113235729608</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y5" t="n">
-        <v>31.35113235729608</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>194.4883050441255</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>74.24228005117135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>304.2053859195205</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4673,25 +4673,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>360.2295980564601</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V6" t="n">
-        <v>360.2295980564601</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W6" t="n">
-        <v>360.2295980564601</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X6" t="n">
-        <v>360.2295980564601</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y6" t="n">
-        <v>194.4883050441255</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="7">
@@ -4761,7 +4761,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
         <v>19.28114311021272</v>
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>591.4512093066566</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="C8" t="n">
-        <v>487.4018176583718</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="D8" t="n">
-        <v>487.4018176583718</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="E8" t="n">
-        <v>487.4018176583718</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="F8" t="n">
-        <v>487.4018176583718</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="G8" t="n">
         <v>243.9530410142718</v>
@@ -4828,28 +4828,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>941.9819777229218</v>
       </c>
       <c r="S8" t="n">
-        <v>591.4512093066566</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="T8" t="n">
-        <v>591.4512093066566</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="U8" t="n">
-        <v>591.4512093066566</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="V8" t="n">
-        <v>591.4512093066566</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="W8" t="n">
-        <v>591.4512093066566</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="X8" t="n">
-        <v>591.4512093066566</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="Y8" t="n">
-        <v>591.4512093066566</v>
+        <v>487.4018176583718</v>
       </c>
     </row>
     <row r="9">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20.03527576299844</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="C9" t="n">
-        <v>20.03527576299844</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="D9" t="n">
-        <v>20.03527576299844</v>
+        <v>108.2982427099313</v>
       </c>
       <c r="E9" t="n">
-        <v>20.03527576299844</v>
+        <v>108.2982427099313</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299844</v>
+        <v>108.2982427099313</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>108.2982427099313</v>
       </c>
       <c r="H9" t="n">
         <v>20.03527576299844</v>
@@ -4892,16 +4892,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4913,22 +4913,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>533.6469426057913</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V9" t="n">
-        <v>298.4948343740486</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W9" t="n">
-        <v>227.8867759685313</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X9" t="n">
-        <v>20.03527576299844</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y9" t="n">
-        <v>20.03527576299844</v>
+        <v>257.2326523711826</v>
       </c>
     </row>
     <row r="10">
@@ -4995,10 +4995,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
         <v>19.28114311021272</v>
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>322.0072940269172</v>
+        <v>546.7341079359765</v>
       </c>
       <c r="C11" t="n">
-        <v>322.0072940269172</v>
+        <v>546.7341079359765</v>
       </c>
       <c r="D11" t="n">
-        <v>322.0072940269172</v>
+        <v>546.7341079359765</v>
       </c>
       <c r="E11" t="n">
-        <v>43.06132059019444</v>
+        <v>546.7341079359765</v>
       </c>
       <c r="F11" t="n">
-        <v>43.06132059019444</v>
+        <v>267.7881344992537</v>
       </c>
       <c r="G11" t="n">
         <v>22.09252109618844</v>
@@ -5050,10 +5050,10 @@
         <v>344.9085595412869</v>
       </c>
       <c r="M11" t="n">
-        <v>586.3582880173956</v>
+        <v>586.3582880173957</v>
       </c>
       <c r="N11" t="n">
-        <v>817.0829279823542</v>
+        <v>817.0829279823544</v>
       </c>
       <c r="O11" t="n">
         <v>989.7620250901066</v>
@@ -5071,22 +5071,22 @@
         <v>1104.626054809422</v>
       </c>
       <c r="T11" t="n">
-        <v>879.8992409003627</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U11" t="n">
-        <v>879.8992409003627</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="V11" t="n">
-        <v>600.9532674636399</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="W11" t="n">
-        <v>322.0072940269172</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="X11" t="n">
-        <v>322.0072940269172</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Y11" t="n">
-        <v>322.0072940269172</v>
+        <v>825.6800813726992</v>
       </c>
     </row>
     <row r="12">
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>387.0179774836253</v>
+        <v>199.624790878991</v>
       </c>
       <c r="C12" t="n">
-        <v>222.40666688016</v>
+        <v>199.624790878991</v>
       </c>
       <c r="D12" t="n">
-        <v>222.40666688016</v>
+        <v>199.624790878991</v>
       </c>
       <c r="E12" t="n">
-        <v>222.40666688016</v>
+        <v>40.38733587353545</v>
       </c>
       <c r="F12" t="n">
-        <v>222.40666688016</v>
+        <v>40.38733587353545</v>
       </c>
       <c r="G12" t="n">
-        <v>222.40666688016</v>
+        <v>40.38733587353545</v>
       </c>
       <c r="H12" t="n">
-        <v>109.772397078701</v>
+        <v>40.38733587353545</v>
       </c>
       <c r="I12" t="n">
         <v>22.09252109618844</v>
@@ -5129,7 +5129,7 @@
         <v>268.2479876888894</v>
       </c>
       <c r="M12" t="n">
-        <v>541.6429362542212</v>
+        <v>298.4556141501885</v>
       </c>
       <c r="N12" t="n">
         <v>571.8505627155204</v>
@@ -5153,19 +5153,19 @@
         <v>1104.626054809422</v>
       </c>
       <c r="U12" t="n">
-        <v>876.4074424435696</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="V12" t="n">
-        <v>641.2553342118269</v>
+        <v>869.4739465776793</v>
       </c>
       <c r="W12" t="n">
-        <v>387.0179774836253</v>
+        <v>615.2365898494777</v>
       </c>
       <c r="X12" t="n">
-        <v>387.0179774836253</v>
+        <v>407.3850896439449</v>
       </c>
       <c r="Y12" t="n">
-        <v>387.0179774836253</v>
+        <v>199.624790878991</v>
       </c>
     </row>
     <row r="13">
@@ -5232,7 +5232,7 @@
         <v>198.9927170031359</v>
       </c>
       <c r="U13" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="V13" t="n">
         <v>22.09252109618844</v>
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>845.8801972267561</v>
+        <v>38.24161755721943</v>
       </c>
       <c r="C14" t="n">
-        <v>845.8801972267561</v>
+        <v>38.24161755721943</v>
       </c>
       <c r="D14" t="n">
-        <v>845.8801972267561</v>
+        <v>38.24161755721943</v>
       </c>
       <c r="E14" t="n">
-        <v>460.0919446285118</v>
+        <v>38.24161755721943</v>
       </c>
       <c r="F14" t="n">
-        <v>49.10603983890427</v>
+        <v>38.24161755721943</v>
       </c>
       <c r="G14" t="n">
-        <v>49.10603983890427</v>
+        <v>38.24161755721943</v>
       </c>
       <c r="H14" t="n">
-        <v>49.10603983890427</v>
+        <v>38.24161755721943</v>
       </c>
       <c r="I14" t="n">
-        <v>49.10603983890427</v>
+        <v>38.24161755721943</v>
       </c>
       <c r="J14" t="n">
-        <v>147.2929132168158</v>
+        <v>96.93923871827201</v>
       </c>
       <c r="K14" t="n">
-        <v>415.194388336768</v>
+        <v>305.6565612977713</v>
       </c>
       <c r="L14" t="n">
-        <v>799.8264852341945</v>
+        <v>616.8654835480074</v>
       </c>
       <c r="M14" t="n">
-        <v>1244.410349176442</v>
+        <v>979.7519185640734</v>
       </c>
       <c r="N14" t="n">
-        <v>1681.556047289583</v>
+        <v>1333.878237938974</v>
       </c>
       <c r="O14" t="n">
-        <v>2049.152696194594</v>
+        <v>1623.082041653885</v>
       </c>
       <c r="P14" t="n">
-        <v>2325.213548478439</v>
+        <v>1832.236414250553</v>
       </c>
       <c r="Q14" t="n">
-        <v>2455.301991945213</v>
+        <v>1912.080877860971</v>
       </c>
       <c r="R14" t="n">
-        <v>2455.301991945213</v>
+        <v>1912.080877860971</v>
       </c>
       <c r="S14" t="n">
-        <v>2348.853782797883</v>
+        <v>1912.080877860971</v>
       </c>
       <c r="T14" t="n">
-        <v>2348.853782797883</v>
+        <v>1912.080877860971</v>
       </c>
       <c r="U14" t="n">
-        <v>2348.853782797883</v>
+        <v>1872.278090471917</v>
       </c>
       <c r="V14" t="n">
-        <v>2348.853782797883</v>
+        <v>1541.215203128347</v>
       </c>
       <c r="W14" t="n">
-        <v>1996.085127527769</v>
+        <v>1188.446547858233</v>
       </c>
       <c r="X14" t="n">
-        <v>1622.61936926669</v>
+        <v>814.9807895971529</v>
       </c>
       <c r="Y14" t="n">
-        <v>1232.480037290878</v>
+        <v>424.8414576213412</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>962.5159078193303</v>
+        <v>245.3210957431259</v>
       </c>
       <c r="C15" t="n">
-        <v>788.0628785382033</v>
+        <v>70.86806646199884</v>
       </c>
       <c r="D15" t="n">
-        <v>639.1284688769521</v>
+        <v>70.86806646199884</v>
       </c>
       <c r="E15" t="n">
-        <v>479.8910138714966</v>
+        <v>70.86806646199884</v>
       </c>
       <c r="F15" t="n">
-        <v>333.3564558983816</v>
+        <v>70.86806646199884</v>
       </c>
       <c r="G15" t="n">
-        <v>195.3332613757522</v>
+        <v>70.86806646199884</v>
       </c>
       <c r="H15" t="n">
-        <v>115.0420614211007</v>
+        <v>70.86806646199884</v>
       </c>
       <c r="I15" t="n">
-        <v>49.10603983890427</v>
+        <v>38.24161755721943</v>
       </c>
       <c r="J15" t="n">
-        <v>113.8920892923635</v>
+        <v>79.50813891877796</v>
       </c>
       <c r="K15" t="n">
-        <v>351.2426098932702</v>
+        <v>276.6600398753084</v>
       </c>
       <c r="L15" t="n">
-        <v>547.5631775848224</v>
+        <v>603.1594970539164</v>
       </c>
       <c r="M15" t="n">
-        <v>1043.628006052599</v>
+        <v>923.4948165836182</v>
       </c>
       <c r="N15" t="n">
-        <v>1568.529207830409</v>
+        <v>1268.015472221236</v>
       </c>
       <c r="O15" t="n">
-        <v>1982.295581432526</v>
+        <v>1622.552291002251</v>
       </c>
       <c r="P15" t="n">
-        <v>2297.376506858684</v>
+        <v>1842.686319347642</v>
       </c>
       <c r="Q15" t="n">
-        <v>2455.301991945213</v>
+        <v>1912.080877860971</v>
       </c>
       <c r="R15" t="n">
-        <v>2455.301991945213</v>
+        <v>1912.080877860971</v>
       </c>
       <c r="S15" t="n">
-        <v>2295.02858090153</v>
+        <v>1747.089599006112</v>
       </c>
       <c r="T15" t="n">
-        <v>2095.694235349244</v>
+        <v>1546.731470568708</v>
       </c>
       <c r="U15" t="n">
-        <v>1867.517171749761</v>
+        <v>1318.537696693625</v>
       </c>
       <c r="V15" t="n">
-        <v>1632.365063518019</v>
+        <v>1083.385588461882</v>
       </c>
       <c r="W15" t="n">
-        <v>1378.127706789817</v>
+        <v>829.1482317336806</v>
       </c>
       <c r="X15" t="n">
-        <v>1170.276206584284</v>
+        <v>621.2967315281478</v>
       </c>
       <c r="Y15" t="n">
-        <v>962.5159078193303</v>
+        <v>413.5364327631939</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>49.10603983890427</v>
+        <v>298.0083914969622</v>
       </c>
       <c r="C16" t="n">
-        <v>49.10603983890427</v>
+        <v>298.0083914969622</v>
       </c>
       <c r="D16" t="n">
-        <v>49.10603983890427</v>
+        <v>298.0083914969622</v>
       </c>
       <c r="E16" t="n">
-        <v>49.10603983890427</v>
+        <v>185.1315650551298</v>
       </c>
       <c r="F16" t="n">
-        <v>49.10603983890427</v>
+        <v>38.24161755721943</v>
       </c>
       <c r="G16" t="n">
-        <v>49.10603983890427</v>
+        <v>38.24161755721943</v>
       </c>
       <c r="H16" t="n">
-        <v>49.10603983890427</v>
+        <v>38.24161755721943</v>
       </c>
       <c r="I16" t="n">
-        <v>49.10603983890427</v>
+        <v>38.24161755721943</v>
       </c>
       <c r="J16" t="n">
-        <v>49.10603983890427</v>
+        <v>38.24161755721943</v>
       </c>
       <c r="K16" t="n">
-        <v>94.61295399245033</v>
+        <v>59.5008832572742</v>
       </c>
       <c r="L16" t="n">
-        <v>208.3725712297702</v>
+        <v>142.2318586473017</v>
       </c>
       <c r="M16" t="n">
-        <v>338.7052604257291</v>
+        <v>239.849195551903</v>
       </c>
       <c r="N16" t="n">
-        <v>471.3735460023452</v>
+        <v>340.5800267922421</v>
       </c>
       <c r="O16" t="n">
-        <v>577.8978852021171</v>
+        <v>417.6049576856852</v>
       </c>
       <c r="P16" t="n">
-        <v>645.5271778068974</v>
+        <v>459.9924103041393</v>
       </c>
       <c r="Q16" t="n">
-        <v>645.5271778068974</v>
+        <v>459.9924103041393</v>
       </c>
       <c r="R16" t="n">
-        <v>645.5271778068974</v>
+        <v>298.0083914969622</v>
       </c>
       <c r="S16" t="n">
-        <v>645.5271778068974</v>
+        <v>298.0083914969622</v>
       </c>
       <c r="T16" t="n">
-        <v>645.5271778068974</v>
+        <v>298.0083914969622</v>
       </c>
       <c r="U16" t="n">
-        <v>645.5271778068974</v>
+        <v>298.0083914969622</v>
       </c>
       <c r="V16" t="n">
-        <v>645.5271778068974</v>
+        <v>298.0083914969622</v>
       </c>
       <c r="W16" t="n">
-        <v>356.1100077699368</v>
+        <v>298.0083914969622</v>
       </c>
       <c r="X16" t="n">
-        <v>128.1204568719194</v>
+        <v>298.0083914969622</v>
       </c>
       <c r="Y16" t="n">
-        <v>49.10603983890427</v>
+        <v>298.0083914969622</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1264.055353925994</v>
+        <v>1581.134716985072</v>
       </c>
       <c r="C17" t="n">
-        <v>1264.055353925994</v>
+        <v>1212.172200044661</v>
       </c>
       <c r="D17" t="n">
-        <v>1264.055353925994</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="E17" t="n">
-        <v>878.2671013277493</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F17" t="n">
-        <v>467.2811965381418</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G17" t="n">
-        <v>49.10603983890427</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H17" t="n">
-        <v>49.10603983890427</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I17" t="n">
-        <v>49.10603983890427</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J17" t="n">
-        <v>147.292913216816</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K17" t="n">
-        <v>415.1943883367682</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L17" t="n">
-        <v>799.8264852341947</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M17" t="n">
-        <v>1244.410349176443</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1681.556047289583</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O17" t="n">
-        <v>2049.152696194594</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P17" t="n">
-        <v>2325.213548478439</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q17" t="n">
-        <v>2455.301991945213</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2386.997176142746</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S17" t="n">
-        <v>2386.997176142746</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="T17" t="n">
-        <v>2167.437330629583</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U17" t="n">
-        <v>2040.794525965927</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V17" t="n">
-        <v>2040.794525965927</v>
+        <v>1971.274048960884</v>
       </c>
       <c r="W17" t="n">
-        <v>2040.794525965927</v>
+        <v>1971.274048960884</v>
       </c>
       <c r="X17" t="n">
-        <v>2040.794525965927</v>
+        <v>1971.274048960884</v>
       </c>
       <c r="Y17" t="n">
-        <v>1650.655193990115</v>
+        <v>1581.134716985072</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>922.8235971808209</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C18" t="n">
-        <v>748.3705678996939</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D18" t="n">
-        <v>599.4361582384427</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E18" t="n">
-        <v>440.1987032329872</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F18" t="n">
-        <v>293.6641452598722</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G18" t="n">
-        <v>155.6409507372428</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H18" t="n">
-        <v>49.10603983890427</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I18" t="n">
-        <v>49.10603983890427</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J18" t="n">
-        <v>49.10603983890427</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K18" t="n">
-        <v>286.456560439811</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L18" t="n">
-        <v>547.5631775848224</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M18" t="n">
-        <v>1043.628006052599</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N18" t="n">
-        <v>1568.529207830409</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O18" t="n">
-        <v>1982.295581432526</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P18" t="n">
-        <v>2297.376506858684</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q18" t="n">
-        <v>2455.301991945213</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R18" t="n">
-        <v>2455.301991945213</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S18" t="n">
-        <v>2423.551607283089</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T18" t="n">
-        <v>2224.217261730802</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U18" t="n">
-        <v>1996.04019813132</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1760.888089899577</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W18" t="n">
-        <v>1506.650733171376</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X18" t="n">
-        <v>1298.799232965843</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y18" t="n">
-        <v>1091.038934200889</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>645.5271778068974</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="C19" t="n">
-        <v>645.5271778068974</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="D19" t="n">
-        <v>495.4105383945616</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="E19" t="n">
-        <v>347.4974448121685</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="F19" t="n">
-        <v>347.4974448121685</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G19" t="n">
-        <v>188.2859567012335</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H19" t="n">
-        <v>188.2859567012335</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I19" t="n">
-        <v>49.10603983890427</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J19" t="n">
-        <v>49.10603983890427</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K19" t="n">
-        <v>94.61295399245033</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L19" t="n">
-        <v>208.3725712297702</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M19" t="n">
-        <v>338.7052604257291</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N19" t="n">
-        <v>471.3735460023452</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O19" t="n">
-        <v>577.8978852021171</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P19" t="n">
-        <v>645.5271778068974</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q19" t="n">
-        <v>645.5271778068974</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R19" t="n">
-        <v>645.5271778068974</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S19" t="n">
-        <v>645.5271778068974</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T19" t="n">
-        <v>645.5271778068974</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U19" t="n">
-        <v>645.5271778068974</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V19" t="n">
-        <v>645.5271778068974</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W19" t="n">
-        <v>645.5271778068974</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="X19" t="n">
-        <v>645.5271778068974</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="Y19" t="n">
-        <v>645.5271778068974</v>
+        <v>184.0273259635867</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1264.055353925994</v>
+        <v>390.716165713678</v>
       </c>
       <c r="C20" t="n">
-        <v>1264.055353925994</v>
+        <v>390.716165713678</v>
       </c>
       <c r="D20" t="n">
-        <v>1264.055353925994</v>
+        <v>390.716165713678</v>
       </c>
       <c r="E20" t="n">
-        <v>878.2671013277493</v>
+        <v>390.716165713678</v>
       </c>
       <c r="F20" t="n">
-        <v>467.2811965381418</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G20" t="n">
-        <v>49.10603983890427</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H20" t="n">
-        <v>49.10603983890427</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I20" t="n">
-        <v>49.10603983890427</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J20" t="n">
-        <v>147.2929132168158</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K20" t="n">
-        <v>415.194388336768</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L20" t="n">
-        <v>799.8264852341945</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M20" t="n">
-        <v>1244.410349176442</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1681.556047289583</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O20" t="n">
-        <v>2049.152696194594</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P20" t="n">
-        <v>2325.213548478439</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q20" t="n">
-        <v>2455.301991945213</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2386.997176142746</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S20" t="n">
-        <v>2386.997176142746</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T20" t="n">
-        <v>2167.437330629583</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U20" t="n">
-        <v>2040.794525965927</v>
+        <v>2224.752638628376</v>
       </c>
       <c r="V20" t="n">
-        <v>2040.794525965927</v>
+        <v>1893.689751284805</v>
       </c>
       <c r="W20" t="n">
-        <v>2040.794525965927</v>
+        <v>1540.921096014691</v>
       </c>
       <c r="X20" t="n">
-        <v>2040.794525965927</v>
+        <v>1167.455337753612</v>
       </c>
       <c r="Y20" t="n">
-        <v>1650.655193990115</v>
+        <v>777.3160057777998</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>954.5739818429449</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C21" t="n">
-        <v>780.1209525618179</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D21" t="n">
-        <v>631.1865429005667</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E21" t="n">
-        <v>471.9490878951112</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F21" t="n">
-        <v>325.4145299219962</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G21" t="n">
-        <v>187.3913353993668</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H21" t="n">
-        <v>115.0420614211007</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
-        <v>49.10603983890427</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J21" t="n">
-        <v>49.10603983890427</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K21" t="n">
-        <v>286.456560439811</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L21" t="n">
-        <v>667.0080225480667</v>
+        <v>713.8062203571346</v>
       </c>
       <c r="M21" t="n">
-        <v>1163.072851015844</v>
+        <v>1237.953133915165</v>
       </c>
       <c r="N21" t="n">
-        <v>1687.974052793654</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O21" t="n">
-        <v>2101.74042639577</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P21" t="n">
-        <v>2385.907433431884</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q21" t="n">
-        <v>2455.301991945213</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R21" t="n">
-        <v>2455.301991945213</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S21" t="n">
-        <v>2455.301991945213</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T21" t="n">
-        <v>2255.967646392926</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U21" t="n">
-        <v>2027.790582793444</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V21" t="n">
-        <v>1792.638474561701</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W21" t="n">
-        <v>1538.4011178335</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X21" t="n">
-        <v>1330.549617627967</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y21" t="n">
-        <v>1122.789318863013</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>203.9390184728076</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="C22" t="n">
-        <v>203.9390184728076</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="D22" t="n">
-        <v>203.9390184728076</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E22" t="n">
-        <v>203.9390184728076</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F22" t="n">
-        <v>57.04907097489721</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G22" t="n">
-        <v>57.04907097489721</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H22" t="n">
-        <v>57.04907097489721</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I22" t="n">
-        <v>49.10603983890427</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J22" t="n">
-        <v>49.10603983890427</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K22" t="n">
-        <v>94.61295399245033</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>208.3725712297702</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M22" t="n">
-        <v>338.7052604257291</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N22" t="n">
-        <v>471.3735460023452</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O22" t="n">
-        <v>577.8978852021171</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P22" t="n">
-        <v>645.5271778068974</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q22" t="n">
-        <v>645.5271778068974</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="R22" t="n">
-        <v>493.1177999294143</v>
+        <v>579.982325640618</v>
       </c>
       <c r="S22" t="n">
-        <v>493.1177999294143</v>
+        <v>579.982325640618</v>
       </c>
       <c r="T22" t="n">
-        <v>493.1177999294143</v>
+        <v>579.982325640618</v>
       </c>
       <c r="U22" t="n">
-        <v>203.9390184728076</v>
+        <v>579.982325640618</v>
       </c>
       <c r="V22" t="n">
-        <v>203.9390184728076</v>
+        <v>579.982325640618</v>
       </c>
       <c r="W22" t="n">
-        <v>203.9390184728076</v>
+        <v>579.982325640618</v>
       </c>
       <c r="X22" t="n">
-        <v>203.9390184728076</v>
+        <v>351.9927747426007</v>
       </c>
       <c r="Y22" t="n">
-        <v>203.9390184728076</v>
+        <v>350.9495687306105</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1491.915471247702</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="C23" t="n">
-        <v>1268.680947310029</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D23" t="n">
         <v>1268.680947310029</v>
@@ -5989,13 +5989,13 @@
         <v>53.94298182036444</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6013,28 +6013,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S23" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T23" t="n">
-        <v>2642.120401548715</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U23" t="n">
-        <v>2642.120401548715</v>
+        <v>2224.752638628376</v>
       </c>
       <c r="V23" t="n">
-        <v>2642.120401548715</v>
+        <v>2000.41240417786</v>
       </c>
       <c r="W23" t="n">
-        <v>2642.120401548715</v>
+        <v>2000.41240417786</v>
       </c>
       <c r="X23" t="n">
-        <v>2268.654643287635</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="Y23" t="n">
-        <v>1878.515311311824</v>
+        <v>1626.94664591678</v>
       </c>
     </row>
     <row r="24">
@@ -6044,43 +6044,43 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C24" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9856282673417</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
         <v>53.94298182036444</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K24" t="n">
-        <v>266.2060027641985</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L24" t="n">
-        <v>670.8219208598704</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M24" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N24" t="n">
-        <v>1748.695370517452</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O24" t="n">
         <v>2188.831293537796</v>
@@ -6092,25 +6092,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R24" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S24" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U24" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W24" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X24" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y24" t="n">
         <v>1156.713312237151</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>204.0596212327002</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="C25" t="n">
-        <v>204.0596212327002</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="D25" t="n">
-        <v>53.94298182036444</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="E25" t="n">
-        <v>53.94298182036444</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="F25" t="n">
-        <v>53.94298182036444</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G25" t="n">
-        <v>53.94298182036444</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H25" t="n">
         <v>53.94298182036444</v>
@@ -6174,25 +6174,25 @@
         <v>579.9823256406182</v>
       </c>
       <c r="S25" t="n">
-        <v>458.7441094385871</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="T25" t="n">
-        <v>458.7441094385871</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="U25" t="n">
-        <v>458.7441094385871</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="V25" t="n">
-        <v>204.0596212327002</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="W25" t="n">
-        <v>204.0596212327002</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="X25" t="n">
-        <v>204.0596212327002</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="Y25" t="n">
-        <v>204.0596212327002</v>
+        <v>380.6911546495019</v>
       </c>
     </row>
     <row r="26">
@@ -6202,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1626.94664591678</v>
+        <v>1851.286880367297</v>
       </c>
       <c r="C26" t="n">
-        <v>1626.94664591678</v>
+        <v>1482.324363426885</v>
       </c>
       <c r="D26" t="n">
-        <v>1268.680947310029</v>
+        <v>1124.058664820135</v>
       </c>
       <c r="E26" t="n">
-        <v>882.8926947117851</v>
+        <v>1124.058664820135</v>
       </c>
       <c r="F26" t="n">
-        <v>471.9067899221776</v>
+        <v>713.0727600305272</v>
       </c>
       <c r="G26" t="n">
-        <v>53.94298182036444</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
@@ -6250,28 +6250,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S26" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T26" t="n">
-        <v>2423.485734520778</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U26" t="n">
-        <v>2169.723949158869</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V26" t="n">
-        <v>1838.661061815299</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="W26" t="n">
-        <v>1626.94664591678</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="X26" t="n">
-        <v>1626.94664591678</v>
+        <v>1851.286880367297</v>
       </c>
       <c r="Y26" t="n">
-        <v>1626.94664591678</v>
+        <v>1851.286880367297</v>
       </c>
     </row>
     <row r="27">
@@ -6281,73 +6281,73 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C27" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H27" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K27" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L27" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M27" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N27" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O27" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P27" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U27" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W27" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X27" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y27" t="n">
         <v>1156.713312237151</v>
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>728.1289842064342</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="C28" t="n">
-        <v>728.1289842064342</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="D28" t="n">
-        <v>578.0123447940985</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E28" t="n">
-        <v>430.0992512117053</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F28" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G28" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H28" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
@@ -6408,28 +6408,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T28" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U28" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V28" t="n">
-        <v>728.1289842064342</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="W28" t="n">
-        <v>728.1289842064342</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="X28" t="n">
-        <v>728.1289842064342</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="Y28" t="n">
-        <v>728.1289842064342</v>
+        <v>350.9495687306105</v>
       </c>
     </row>
     <row r="29">
@@ -6439,31 +6439,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1528.349585887292</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="C29" t="n">
-        <v>1528.349585887292</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="D29" t="n">
-        <v>1170.083887280542</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E29" t="n">
-        <v>882.8926947117851</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F29" t="n">
-        <v>471.9067899221776</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036444</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K29" t="n">
         <v>463.9616490733126</v>
@@ -6487,28 +6487,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S29" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T29" t="n">
-        <v>2465.942913862886</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U29" t="n">
-        <v>2212.181128500977</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V29" t="n">
-        <v>1881.118241157406</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W29" t="n">
-        <v>1528.349585887292</v>
+        <v>1600.226746651594</v>
       </c>
       <c r="X29" t="n">
-        <v>1528.349585887292</v>
+        <v>1600.226746651594</v>
       </c>
       <c r="Y29" t="n">
-        <v>1528.349585887292</v>
+        <v>1210.087414675782</v>
       </c>
     </row>
     <row r="30">
@@ -6518,34 +6518,34 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C30" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H30" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K30" t="n">
-        <v>309.1903022614629</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L30" t="n">
         <v>713.8062203571349</v>
@@ -6554,37 +6554,37 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N30" t="n">
-        <v>1748.695370517452</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O30" t="n">
-        <v>2188.831293537796</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W30" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X30" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y30" t="n">
         <v>1156.713312237151</v>
@@ -6597,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53.94298182036444</v>
+        <v>131.2001955990708</v>
       </c>
       <c r="C31" t="n">
-        <v>53.94298182036444</v>
+        <v>131.2001955990708</v>
       </c>
       <c r="D31" t="n">
-        <v>53.94298182036444</v>
+        <v>131.2001955990708</v>
       </c>
       <c r="E31" t="n">
-        <v>53.94298182036444</v>
+        <v>131.2001955990708</v>
       </c>
       <c r="F31" t="n">
-        <v>53.94298182036444</v>
+        <v>131.2001955990708</v>
       </c>
       <c r="G31" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H31" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K31" t="n">
         <v>110.2451748866326</v>
@@ -6645,28 +6645,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R31" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S31" t="n">
-        <v>513.8405610245969</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T31" t="n">
-        <v>513.8405610245969</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U31" t="n">
-        <v>513.8405610245969</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V31" t="n">
-        <v>502.7251118619119</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="W31" t="n">
-        <v>502.7251118619119</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="X31" t="n">
-        <v>274.7355609638946</v>
+        <v>351.9927747426009</v>
       </c>
       <c r="Y31" t="n">
-        <v>53.94298182036444</v>
+        <v>131.2001955990708</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1577.945354755378</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C32" t="n">
-        <v>1208.982837814967</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D32" t="n">
-        <v>850.7171392082162</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E32" t="n">
-        <v>464.928886609972</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F32" t="n">
-        <v>53.94298182036444</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G32" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
@@ -6724,28 +6724,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S32" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T32" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U32" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V32" t="n">
-        <v>2341.55044499227</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W32" t="n">
-        <v>2341.55044499227</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X32" t="n">
-        <v>1968.08468673119</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y32" t="n">
-        <v>1577.945354755378</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="33">
@@ -6755,49 +6755,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692488</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673417</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K33" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L33" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M33" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N33" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O33" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P33" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018222</v>
@@ -6818,10 +6818,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W33" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X33" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y33" t="n">
         <v>1156.713312237151</v>
@@ -6834,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C34" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D34" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E34" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F34" t="n">
-        <v>291.8218666715633</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G34" t="n">
-        <v>291.8218666715633</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H34" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I34" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K34" t="n">
         <v>110.2451748866326</v>
@@ -6891,19 +6891,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U34" t="n">
-        <v>728.1289842064342</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V34" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W34" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X34" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y34" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="35">
@@ -6913,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1637.643464250441</v>
+        <v>940.7730915590425</v>
       </c>
       <c r="C35" t="n">
-        <v>1268.680947310029</v>
+        <v>940.7730915590425</v>
       </c>
       <c r="D35" t="n">
-        <v>1268.680947310029</v>
+        <v>940.7730915590425</v>
       </c>
       <c r="E35" t="n">
-        <v>882.8926947117851</v>
+        <v>940.7730915590425</v>
       </c>
       <c r="F35" t="n">
-        <v>471.9067899221776</v>
+        <v>529.787186769435</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036444</v>
+        <v>111.8233786676219</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
@@ -6961,28 +6961,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S35" t="n">
-        <v>2642.120401548715</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T35" t="n">
-        <v>2423.485734520778</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U35" t="n">
-        <v>2423.485734520778</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V35" t="n">
-        <v>2423.485734520778</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W35" t="n">
-        <v>2423.485734520778</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="X35" t="n">
-        <v>2414.382636290375</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="Y35" t="n">
-        <v>2024.243304314563</v>
+        <v>1327.372931623164</v>
       </c>
     </row>
     <row r="36">
@@ -6992,73 +6992,73 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C36" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673417</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>53.94298182036444</v>
+        <v>113.6371076753678</v>
       </c>
       <c r="K36" t="n">
-        <v>309.1903022614629</v>
+        <v>368.8844281164663</v>
       </c>
       <c r="L36" t="n">
-        <v>670.8219208598704</v>
+        <v>773.5003462121382</v>
       </c>
       <c r="M36" t="n">
-        <v>1194.968834417901</v>
+        <v>1297.647259770169</v>
       </c>
       <c r="N36" t="n">
-        <v>1748.695370517452</v>
+        <v>1851.37379586972</v>
       </c>
       <c r="O36" t="n">
-        <v>2188.831293537796</v>
+        <v>2291.509718890064</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.076107152625</v>
+        <v>2627.754532504893</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W36" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X36" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y36" t="n">
         <v>1156.713312237151</v>
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>728.1289842064342</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C37" t="n">
-        <v>559.1928012785273</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D37" t="n">
-        <v>409.0761618661916</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E37" t="n">
-        <v>261.1630682837985</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F37" t="n">
-        <v>114.2731207858881</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K37" t="n">
         <v>110.2451748866326</v>
@@ -7134,13 +7134,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="W37" t="n">
-        <v>728.1289842064342</v>
+        <v>450.9323329800494</v>
       </c>
       <c r="X37" t="n">
-        <v>728.1289842064342</v>
+        <v>222.942782082032</v>
       </c>
       <c r="Y37" t="n">
-        <v>728.1289842064342</v>
+        <v>222.942782082032</v>
       </c>
     </row>
     <row r="38">
@@ -7150,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1210.087414675782</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C38" t="n">
-        <v>1210.087414675782</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="D38" t="n">
-        <v>1210.087414675782</v>
+        <v>1133.649772640952</v>
       </c>
       <c r="E38" t="n">
-        <v>1210.087414675782</v>
+        <v>747.8615200427075</v>
       </c>
       <c r="F38" t="n">
-        <v>799.1015098861747</v>
+        <v>336.8756152531</v>
       </c>
       <c r="G38" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
@@ -7198,28 +7198,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S38" t="n">
-        <v>2520.971603332392</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T38" t="n">
-        <v>2520.971603332392</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U38" t="n">
-        <v>2267.209817970484</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V38" t="n">
-        <v>2267.209817970484</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W38" t="n">
-        <v>2267.209817970484</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X38" t="n">
-        <v>1986.826586715716</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y38" t="n">
-        <v>1596.687254739904</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="39">
@@ -7229,34 +7229,34 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C39" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H39" t="n">
-        <v>115.9856282673417</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036423</v>
       </c>
       <c r="J39" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K39" t="n">
-        <v>309.1903022614629</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L39" t="n">
         <v>713.8062203571349</v>
@@ -7271,7 +7271,7 @@
         <v>2231.815593035061</v>
       </c>
       <c r="P39" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018222</v>
@@ -7292,10 +7292,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W39" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X39" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y39" t="n">
         <v>1156.713312237151</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>728.1289842064342</v>
+        <v>646.0499982839149</v>
       </c>
       <c r="C40" t="n">
-        <v>559.1928012785273</v>
+        <v>646.0499982839149</v>
       </c>
       <c r="D40" t="n">
-        <v>559.1928012785273</v>
+        <v>495.9333588715792</v>
       </c>
       <c r="E40" t="n">
-        <v>411.2797076961342</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="F40" t="n">
         <v>348.0202652891861</v>
@@ -7329,10 +7329,10 @@
         <v>190.2718927217162</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K40" t="n">
         <v>110.2451748866326</v>
@@ -7356,28 +7356,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064342</v>
+        <v>646.0499982839149</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064342</v>
+        <v>646.0499982839149</v>
       </c>
       <c r="T40" t="n">
-        <v>728.1289842064342</v>
+        <v>646.0499982839149</v>
       </c>
       <c r="U40" t="n">
-        <v>728.1289842064342</v>
+        <v>646.0499982839149</v>
       </c>
       <c r="V40" t="n">
-        <v>728.1289842064342</v>
+        <v>646.0499982839149</v>
       </c>
       <c r="W40" t="n">
-        <v>728.1289842064342</v>
+        <v>646.0499982839149</v>
       </c>
       <c r="X40" t="n">
-        <v>728.1289842064342</v>
+        <v>646.0499982839149</v>
       </c>
       <c r="Y40" t="n">
-        <v>728.1289842064342</v>
+        <v>646.0499982839149</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1491.915471247702</v>
+        <v>2149.375138862102</v>
       </c>
       <c r="C41" t="n">
-        <v>1268.68094731003</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D41" t="n">
-        <v>1268.68094731003</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E41" t="n">
-        <v>882.8926947117852</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F41" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I41" t="n">
         <v>53.94298182036445</v>
@@ -7414,16 +7414,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O41" t="n">
         <v>2238.843319642689</v>
@@ -7435,28 +7435,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X41" t="n">
-        <v>2268.654643287636</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y41" t="n">
-        <v>1878.515311311824</v>
+        <v>2535.974978926224</v>
       </c>
     </row>
     <row r="42">
@@ -7466,49 +7466,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K42" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L42" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M42" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N42" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O42" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P42" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018222</v>
@@ -7529,10 +7529,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W42" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X42" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y42" t="n">
         <v>1156.713312237151</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>138.3857151273827</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="C43" t="n">
-        <v>138.3857151273827</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="D43" t="n">
-        <v>138.3857151273827</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="E43" t="n">
-        <v>138.3857151273827</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="F43" t="n">
-        <v>138.3857151273827</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J43" t="n">
         <v>53.94298182036445</v>
@@ -7593,28 +7593,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R43" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S43" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T43" t="n">
-        <v>138.3857151273827</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U43" t="n">
-        <v>138.3857151273827</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V43" t="n">
-        <v>138.3857151273827</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W43" t="n">
-        <v>138.3857151273827</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X43" t="n">
-        <v>138.3857151273827</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y43" t="n">
-        <v>138.3857151273827</v>
+        <v>438.7118141694736</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1315.737983561872</v>
+        <v>1529.286147953399</v>
       </c>
       <c r="C44" t="n">
-        <v>946.7754666214603</v>
+        <v>1160.323631012988</v>
       </c>
       <c r="D44" t="n">
-        <v>946.7754666214603</v>
+        <v>802.0579324062371</v>
       </c>
       <c r="E44" t="n">
-        <v>560.987214023216</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="F44" t="n">
-        <v>150.0013092336084</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I44" t="n">
         <v>53.94298182036444</v>
@@ -7675,25 +7675,25 @@
         <v>2642.120401548715</v>
       </c>
       <c r="S44" t="n">
-        <v>2465.942913862885</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T44" t="n">
-        <v>2465.942913862885</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U44" t="n">
-        <v>2465.942913862885</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V44" t="n">
-        <v>2465.942913862885</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="W44" t="n">
-        <v>2465.942913862885</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X44" t="n">
-        <v>2092.477155601805</v>
+        <v>1915.885988017521</v>
       </c>
       <c r="Y44" t="n">
-        <v>1702.337823625994</v>
+        <v>1915.885988017521</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C45" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H45" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I45" t="n">
         <v>53.94298182036444</v>
@@ -7745,31 +7745,31 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P45" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W45" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X45" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y45" t="n">
         <v>1156.713312237151</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>520.9725150767608</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="C46" t="n">
-        <v>520.9725150767608</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="D46" t="n">
-        <v>370.8558756644251</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="E46" t="n">
-        <v>222.942782082032</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="F46" t="n">
-        <v>222.942782082032</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="G46" t="n">
-        <v>53.94298182036444</v>
+        <v>196.6941021971134</v>
       </c>
       <c r="H46" t="n">
         <v>53.94298182036444</v>
@@ -7833,25 +7833,25 @@
         <v>579.9823256406182</v>
       </c>
       <c r="S46" t="n">
-        <v>579.9823256406182</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T46" t="n">
-        <v>520.9725150767608</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="U46" t="n">
-        <v>520.9725150767608</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="V46" t="n">
-        <v>520.9725150767608</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="W46" t="n">
-        <v>520.9725150767608</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="X46" t="n">
-        <v>520.9725150767608</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="Y46" t="n">
-        <v>520.9725150767608</v>
+        <v>365.6939024587809</v>
       </c>
     </row>
   </sheetData>
@@ -8060,16 +8060,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>359.8407857361378</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>193.3577389147212</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2508595994748</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8540,19 +8540,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8777,10 +8777,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>418.2905476243738</v>
+        <v>172.6467879233305</v>
       </c>
       <c r="N12" t="n">
-        <v>161.8544660846456</v>
+        <v>407.4982257856888</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -9011,7 +9011,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>184.7485327613343</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270196</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>194.3570488013773</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>194.3570488013777</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>194.3570488013773</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,22 +22546,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>324.7966126378724</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D2" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G2" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -22570,7 +22570,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22600,7 +22600,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>170.6702810763838</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -22615,7 +22615,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22646,10 +22646,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>60.3442152127903</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22679,10 +22679,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>170.3657197299391</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -22761,7 +22761,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22770,7 +22770,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22792,13 +22792,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>203.0173518716929</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -22807,7 +22807,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22828,7 +22828,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -22837,19 +22837,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>32.75045248984648</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -22865,7 +22865,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -22886,7 +22886,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22913,25 +22913,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>41.59881569509307</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="7">
@@ -23001,10 +23001,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23020,10 +23020,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
-        <v>262.2639940392057</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -23035,7 +23035,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -23068,7 +23068,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>138.0053911458572</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -23105,7 +23105,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -23117,7 +23117,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>24.85510695903295</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -23153,7 +23153,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -23162,10 +23162,10 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>181.7930053394574</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23235,13 +23235,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>106.5773279611251</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23266,13 +23266,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>105.7738563699063</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>130.719532039356</v>
       </c>
       <c r="G11" t="n">
-        <v>394.4028370282535</v>
+        <v>171.9232912582848</v>
       </c>
       <c r="H11" t="n">
         <v>338.0329468943008</v>
@@ -23311,22 +23311,22 @@
         <v>205.8118405263978</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U11" t="n">
         <v>251.3343897888113</v>
       </c>
       <c r="V11" t="n">
-        <v>51.59574476777942</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>73.08445501505753</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>110.0814249536981</v>
       </c>
     </row>
     <row r="12">
@@ -23339,13 +23339,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>9.743301490885102</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
@@ -23354,10 +23354,10 @@
         <v>137.2681884137393</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>68.69121059311385</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23393,7 +23393,7 @@
         <v>199.8611009721718</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -23402,10 +23402,10 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23472,10 +23472,10 @@
         <v>227.6757534850358</v>
       </c>
       <c r="U13" t="n">
-        <v>286.3155846423218</v>
+        <v>111.1843906944439</v>
       </c>
       <c r="V13" t="n">
-        <v>77.0064493759501</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23503,19 +23503,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>413.9934051322451</v>
+        <v>414.4633753356636</v>
       </c>
       <c r="H14" t="n">
-        <v>326.065601849496</v>
+        <v>330.8786841952548</v>
       </c>
       <c r="I14" t="n">
-        <v>159.9978528790433</v>
+        <v>178.1163791463313</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,19 +23542,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>67.62176764444244</v>
+        <v>97.14353343492375</v>
       </c>
       <c r="S14" t="n">
-        <v>73.79993085528557</v>
+        <v>189.8931039215388</v>
       </c>
       <c r="T14" t="n">
-        <v>217.3642470580309</v>
+        <v>219.4215416234949</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2409063172053</v>
+        <v>211.8737444183156</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23573,28 +23573,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>136.8944188046378</v>
       </c>
       <c r="H15" t="n">
-        <v>25.98127383425016</v>
+        <v>107.898099562911</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>41.63407073920485</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>56.66199767592525</v>
+        <v>72.27434132826716</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -23661,22 +23661,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>34.68590446915509</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.4036579268715</v>
+        <v>167.6144703808229</v>
       </c>
       <c r="H16" t="n">
-        <v>157.0053510520544</v>
+        <v>158.8796654153678</v>
       </c>
       <c r="I16" t="n">
-        <v>137.7881176937059</v>
+        <v>144.1278231270811</v>
       </c>
       <c r="J16" t="n">
-        <v>51.83555490345137</v>
+        <v>66.73999539781613</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,31 +23697,31 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>36.9818822848714</v>
+        <v>54.63455058802092</v>
       </c>
       <c r="R16" t="n">
-        <v>150.8852840987082</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>213.7811872701283</v>
+        <v>217.4550733994452</v>
       </c>
       <c r="T16" t="n">
-        <v>225.4361251296812</v>
+        <v>226.33686925111</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2869936420407</v>
+        <v>286.2984925031653</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>140.3603804894098</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23731,16 +23731,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>28.69633134113616</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>326.065601849496</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>159.9978528790433</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,19 +23779,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S17" t="n">
-        <v>179.1836579111419</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>125.8645297001856</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23831,7 +23831,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>65.27666136637444</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,10 +23858,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>56.66199767592525</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>127.2377961177427</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23895,25 +23895,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>16.63754732114114</v>
       </c>
       <c r="G19" t="n">
-        <v>9.784284697045791</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H19" t="n">
-        <v>157.0053510520544</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J19" t="n">
-        <v>51.83555490345137</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,25 +23934,25 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>36.9818822848714</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R19" t="n">
-        <v>150.8852840987082</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
-        <v>213.7811872701283</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>225.4361251296812</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2869936420407</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23977,19 +23977,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>73.47059368733102</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
-        <v>326.065601849496</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
-        <v>159.9978528790433</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,25 +24016,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.47840257481174</v>
       </c>
       <c r="S20" t="n">
-        <v>179.1836579111419</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>125.8645297001856</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24065,7 +24065,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>33.8437805508717</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24095,10 +24095,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>56.66199767592525</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>158.6706769332458</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,16 +24141,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>167.4036579268715</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
-        <v>157.0053510520544</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
-        <v>129.9245168690729</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J22" t="n">
-        <v>51.83555490345137</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,19 +24171,19 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>36.9818822848714</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>213.7811872701283</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>225.4361251296812</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24192,10 +24192,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>217.5518794002245</v>
       </c>
     </row>
     <row r="23">
@@ -24205,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>144.2707130727118</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24253,19 +24253,19 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>105.6554263641235</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24274,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24332,7 +24332,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>8.029132914089132e-13</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,16 +24378,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24408,13 +24408,13 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>92.11970491000808</v>
+        <v>14.84727966881371</v>
       </c>
       <c r="T25" t="n">
         <v>225.0351054580843</v>
@@ -24423,7 +24423,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24445,25 +24445,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>237.0997786019523</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
@@ -24502,13 +24502,13 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>139.6436969778794</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24609,22 +24609,22 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>64.16285195963717</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24645,10 +24645,10 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>212.1455389500189</v>
@@ -24660,7 +24660,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>25.39521398292038</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24685,10 +24685,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>97.61108942919265</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24697,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>151.9313162448613</v>
@@ -24727,13 +24727,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24742,13 +24742,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>58.71259413053338</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24852,16 +24852,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3098022590509</v>
+        <v>90.82516061813165</v>
       </c>
       <c r="H31" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24882,13 +24882,13 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
         <v>225.0351054580843</v>
@@ -24897,7 +24897,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>241.1333486527698</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24916,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>89.79231049789979</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24931,7 +24931,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>323.9227727643571</v>
@@ -24964,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
@@ -24976,7 +24976,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>30.1880014792543</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -25086,19 +25086,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
-        <v>55.63641463144656</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25119,7 +25119,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
         <v>146.6651919801579</v>
@@ -25131,10 +25131,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25156,13 +25156,13 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>266.6211798855722</v>
       </c>
       <c r="I35" t="n">
         <v>151.9313162448613</v>
@@ -25201,25 +25201,25 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>360.7190334303698</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25314,28 +25314,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>107.5829646831825</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,7 +25356,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
         <v>146.6651919801579</v>
@@ -25374,10 +25374,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>12.09831362247007</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25396,19 +25396,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>133.6808629223868</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
         <v>151.9313162448613</v>
@@ -25438,16 +25438,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25456,7 +25456,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>92.15170173624881</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25551,16 +25551,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>82.79420004005257</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>167.3098022590509</v>
@@ -25572,7 +25572,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,10 +25593,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801579</v>
+        <v>65.40699591686372</v>
       </c>
       <c r="S40" t="n">
         <v>212.1455389500189</v>
@@ -25630,10 +25630,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>144.2707130727115</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
@@ -25693,10 +25693,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>226.6755676849753</v>
       </c>
     </row>
     <row r="42">
@@ -25791,25 +25791,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>104.7492988506317</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>83.71149628510288</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,16 +25830,16 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
         <v>286.2818742419777</v>
@@ -25848,7 +25848,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25870,22 +25870,22 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>207.0120552579041</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>318.6864258816835</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
         <v>216.4483203576578</v>
@@ -25927,13 +25927,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>8.100187187665142e-13</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -26028,10 +26028,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>156.1708888417951</v>
+        <v>14.84727966881371</v>
       </c>
       <c r="I46" t="n">
         <v>134.9656217923383</v>
@@ -26073,10 +26073,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>166.6153929998654</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
         <v>286.2818742419777</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>440325.7822080312</v>
+        <v>440325.7822080311</v>
       </c>
     </row>
     <row r="4">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>721194.3432303482</v>
+        <v>619983.3577822559</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>721194.3432303482</v>
+        <v>766254.4165417576</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>721194.3432303481</v>
+        <v>766254.4165417578</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>766254.4165417578</v>
+        <v>766254.4165417579</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>766254.4165417579</v>
+        <v>766254.4165417578</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>766254.4165417579</v>
+        <v>766254.4165417578</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>766254.4165417576</v>
+        <v>766254.4165417578</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>766254.4165417576</v>
+        <v>766254.4165417575</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>766254.4165417576</v>
+        <v>766254.4165417579</v>
       </c>
     </row>
   </sheetData>
@@ -26322,37 +26322,37 @@
         <v>141236.5716516325</v>
       </c>
       <c r="E2" t="n">
-        <v>150604.5581398032</v>
+        <v>150604.5581398033</v>
       </c>
       <c r="F2" t="n">
-        <v>231326.4874512437</v>
+        <v>198862.5864584594</v>
       </c>
       <c r="G2" t="n">
-        <v>231326.4874512437</v>
+        <v>245779.7185133938</v>
       </c>
       <c r="H2" t="n">
-        <v>231326.4874512437</v>
+        <v>245779.7185133938</v>
       </c>
       <c r="I2" t="n">
         <v>245779.7185133938</v>
       </c>
       <c r="J2" t="n">
-        <v>245779.7185133938</v>
+        <v>245779.7185133939</v>
       </c>
       <c r="K2" t="n">
-        <v>245779.7185133938</v>
+        <v>245779.7185133939</v>
       </c>
       <c r="L2" t="n">
-        <v>245779.7185133938</v>
+        <v>245779.7185133939</v>
       </c>
       <c r="M2" t="n">
-        <v>245779.7185133938</v>
+        <v>245779.7185133939</v>
       </c>
       <c r="N2" t="n">
         <v>245779.7185133938</v>
       </c>
       <c r="O2" t="n">
-        <v>245779.7185133939</v>
+        <v>245779.7185133938</v>
       </c>
       <c r="P2" t="n">
         <v>245779.7185133939</v>
@@ -26377,19 +26377,19 @@
         <v>38628.88112923565</v>
       </c>
       <c r="F3" t="n">
-        <v>326513.6777659219</v>
+        <v>195194.8921689328</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>185152.0893328023</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>55256.55893426009</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>63059.94259910626</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>8757.582995213648</v>
+        <v>8757.582995213677</v>
       </c>
       <c r="N3" t="n">
-        <v>82704.25131371446</v>
+        <v>49441.87186138668</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>47231.86264112639</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26429,22 +26429,22 @@
         <v>206.5374179011836</v>
       </c>
       <c r="F4" t="n">
-        <v>466.4697173760629</v>
+        <v>361.7127405802784</v>
       </c>
       <c r="G4" t="n">
-        <v>466.4697173760629</v>
+        <v>513.1084990597034</v>
       </c>
       <c r="H4" t="n">
-        <v>466.4697173760629</v>
+        <v>513.1084990597034</v>
       </c>
       <c r="I4" t="n">
         <v>513.1084990597035</v>
       </c>
       <c r="J4" t="n">
-        <v>513.1084990597034</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="K4" t="n">
-        <v>513.1084990597034</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="L4" t="n">
         <v>513.1084990597035</v>
@@ -26453,7 +26453,7 @@
         <v>513.1084990597035</v>
       </c>
       <c r="N4" t="n">
-        <v>513.1084990597034</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="O4" t="n">
         <v>513.1084990597035</v>
@@ -26481,13 +26481,13 @@
         <v>17553.77951678015</v>
       </c>
       <c r="F5" t="n">
-        <v>44420.7724568834</v>
+        <v>33615.28060221578</v>
       </c>
       <c r="G5" t="n">
-        <v>44420.7724568834</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="H5" t="n">
-        <v>44420.7724568834</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="I5" t="n">
         <v>49231.47806340946</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-211.6717614212776</v>
+        <v>10784.53779661511</v>
       </c>
       <c r="C6" t="n">
-        <v>80557.75977012643</v>
+        <v>91553.96932816286</v>
       </c>
       <c r="D6" t="n">
-        <v>80557.7597701264</v>
+        <v>91553.96932816286</v>
       </c>
       <c r="E6" t="n">
-        <v>82548.40748456166</v>
+        <v>93048.66481675382</v>
       </c>
       <c r="F6" t="n">
-        <v>-146993.0362972363</v>
+        <v>-31192.12355758631</v>
       </c>
       <c r="G6" t="n">
-        <v>179520.6414686856</v>
+        <v>10276.20124354042</v>
       </c>
       <c r="H6" t="n">
-        <v>179520.6414686856</v>
+        <v>195428.2905763428</v>
       </c>
       <c r="I6" t="n">
-        <v>134710.1592708453</v>
+        <v>195428.2905763428</v>
       </c>
       <c r="J6" t="n">
-        <v>126906.7756059992</v>
+        <v>132368.3479772366</v>
       </c>
       <c r="K6" t="n">
-        <v>189966.7182051054</v>
+        <v>195428.2905763428</v>
       </c>
       <c r="L6" t="n">
-        <v>189966.7182051055</v>
+        <v>195428.2905763428</v>
       </c>
       <c r="M6" t="n">
-        <v>181209.1352098918</v>
+        <v>186670.7075811291</v>
       </c>
       <c r="N6" t="n">
-        <v>107262.466891391</v>
+        <v>145986.418714956</v>
       </c>
       <c r="O6" t="n">
-        <v>189966.7182051055</v>
+        <v>148196.4279352163</v>
       </c>
       <c r="P6" t="n">
-        <v>189966.7182051055</v>
+        <v>195428.2905763428</v>
       </c>
     </row>
   </sheetData>
@@ -26749,13 +26749,13 @@
         <v>35.02126071912533</v>
       </c>
       <c r="F3" t="n">
-        <v>325.6964302438608</v>
+        <v>208.7913421435329</v>
       </c>
       <c r="G3" t="n">
-        <v>325.6964302438608</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="H3" t="n">
-        <v>325.6964302438608</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="I3" t="n">
         <v>377.7436642170866</v>
@@ -26801,31 +26801,31 @@
         <v>276.1565137023555</v>
       </c>
       <c r="F4" t="n">
-        <v>613.8254979863033</v>
+        <v>478.0202194652428</v>
       </c>
       <c r="G4" t="n">
-        <v>613.8254979863033</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="H4" t="n">
-        <v>613.8254979863033</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="I4" t="n">
         <v>674.2872727545555</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="L4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O4" t="n">
         <v>674.2872727545556</v>
@@ -26971,16 +26971,16 @@
         <v>35.02126071912533</v>
       </c>
       <c r="F3" t="n">
-        <v>290.6751695247355</v>
+        <v>173.7700814244076</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>168.9523220735537</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>52.04723397322573</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27023,19 +27023,19 @@
         <v>35.14222482469643</v>
       </c>
       <c r="F4" t="n">
-        <v>337.6689842839477</v>
+        <v>201.8637057628872</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>196.2670532893127</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>60.46177476825221</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776592</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>35.14222482469643</v>
+        <v>35.14222482469654</v>
       </c>
       <c r="N4" t="n">
-        <v>337.6689842839477</v>
+        <v>201.8637057628872</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>196.2670532893127</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27269,10 +27269,10 @@
         <v>35.14222482469643</v>
       </c>
       <c r="N4" t="n">
-        <v>337.6689842839477</v>
+        <v>201.8637057628872</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>196.2670532893127</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.309332382889892</v>
+        <v>0.8393621794714884</v>
       </c>
       <c r="H14" t="n">
-        <v>13.40920026627111</v>
+        <v>8.596117920512382</v>
       </c>
       <c r="I14" t="n">
-        <v>50.4780366913626</v>
+        <v>32.35951042407459</v>
       </c>
       <c r="J14" t="n">
-        <v>111.1279493323011</v>
+        <v>71.2398157799183</v>
       </c>
       <c r="K14" t="n">
-        <v>166.5519891000302</v>
+        <v>106.7700168369464</v>
       </c>
       <c r="L14" t="n">
-        <v>206.6224700128968</v>
+        <v>132.457647136947</v>
       </c>
       <c r="M14" t="n">
-        <v>229.9073097771149</v>
+        <v>147.3846542961231</v>
       </c>
       <c r="N14" t="n">
-        <v>233.6274504100008</v>
+        <v>149.7694920885465</v>
       </c>
       <c r="O14" t="n">
-        <v>220.6077765276394</v>
+        <v>141.4230844164268</v>
       </c>
       <c r="P14" t="n">
-        <v>188.2836333250452</v>
+        <v>120.7013306107245</v>
       </c>
       <c r="Q14" t="n">
-        <v>141.3931673628009</v>
+        <v>90.64167255840175</v>
       </c>
       <c r="R14" t="n">
-        <v>82.24735029670724</v>
+        <v>52.72558450622593</v>
       </c>
       <c r="S14" t="n">
-        <v>29.83641167510344</v>
+        <v>19.12696566470656</v>
       </c>
       <c r="T14" t="n">
-        <v>5.731602506100504</v>
+        <v>3.674307940636442</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1047465906311913</v>
+        <v>0.06714897435771905</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7005545858075498</v>
+        <v>0.4490983585728821</v>
       </c>
       <c r="H15" t="n">
-        <v>6.765882447141337</v>
+        <v>4.337344673585467</v>
       </c>
       <c r="I15" t="n">
-        <v>24.11997148504064</v>
+        <v>15.46237769647862</v>
       </c>
       <c r="J15" t="n">
-        <v>66.18704531965102</v>
+        <v>42.42994623692304</v>
       </c>
       <c r="K15" t="n">
-        <v>113.1242025687568</v>
+        <v>72.51953626130614</v>
       </c>
       <c r="L15" t="n">
-        <v>152.1094507473805</v>
+        <v>97.51146596995846</v>
       </c>
       <c r="M15" t="n">
-        <v>177.5045544829041</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>182.2025718587802</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>166.6797570890445</v>
+        <v>106.8519239364173</v>
       </c>
       <c r="P15" t="n">
-        <v>133.7751998109171</v>
+        <v>37.86924316367649</v>
       </c>
       <c r="Q15" t="n">
-        <v>89.42517835676723</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>43.49583647671788</v>
+        <v>27.88349282437597</v>
       </c>
       <c r="S15" t="n">
-        <v>13.01249417059198</v>
+        <v>8.341805037526992</v>
       </c>
       <c r="T15" t="n">
-        <v>2.823726598057623</v>
+        <v>1.810181541791572</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04608911748733882</v>
+        <v>0.02954594464295278</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.58732143158729</v>
+        <v>0.3765089776358789</v>
       </c>
       <c r="H16" t="n">
-        <v>5.221821455385182</v>
+        <v>3.347507092071726</v>
       </c>
       <c r="I16" t="n">
-        <v>17.66235723355233</v>
+        <v>11.32265180017716</v>
       </c>
       <c r="J16" t="n">
-        <v>41.5236252132214</v>
+        <v>26.61918471885664</v>
       </c>
       <c r="K16" t="n">
-        <v>68.23607177895968</v>
+        <v>43.74349758351393</v>
       </c>
       <c r="L16" t="n">
-        <v>87.31867901980493</v>
+        <v>55.97661654779241</v>
       </c>
       <c r="M16" t="n">
-        <v>92.06530404417855</v>
+        <v>59.01949364886782</v>
       </c>
       <c r="N16" t="n">
-        <v>89.87619689008054</v>
+        <v>57.61614200495232</v>
       </c>
       <c r="O16" t="n">
-        <v>83.01521471199261</v>
+        <v>53.21783258438771</v>
       </c>
       <c r="P16" t="n">
-        <v>71.03385750761184</v>
+        <v>45.53704944061574</v>
       </c>
       <c r="Q16" t="n">
-        <v>49.18016096682299</v>
+        <v>31.52749266367346</v>
       </c>
       <c r="R16" t="n">
-        <v>26.40810727846123</v>
+        <v>16.92921275806415</v>
       </c>
       <c r="S16" t="n">
-        <v>10.23541076684395</v>
+        <v>6.561524637527087</v>
       </c>
       <c r="T16" t="n">
-        <v>2.509464298600238</v>
+        <v>1.608720177171482</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03203571445021586</v>
+        <v>0.02053685332559342</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.309332382889892</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H17" t="n">
-        <v>13.40920026627111</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I17" t="n">
-        <v>50.4780366913626</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J17" t="n">
-        <v>111.1279493323011</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K17" t="n">
-        <v>166.5519891000302</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L17" t="n">
-        <v>206.6224700128968</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M17" t="n">
-        <v>229.9073097771149</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N17" t="n">
-        <v>233.6274504100008</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O17" t="n">
-        <v>220.6077765276394</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P17" t="n">
-        <v>188.2836333250452</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q17" t="n">
-        <v>141.3931673628009</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>82.24735029670724</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S17" t="n">
-        <v>29.83641167510344</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T17" t="n">
-        <v>5.731602506100504</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1047465906311913</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7005545858075498</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H18" t="n">
-        <v>6.765882447141337</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I18" t="n">
-        <v>24.11997148504064</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>113.1242025687568</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L18" t="n">
-        <v>31.45809219864873</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M18" t="n">
-        <v>177.5045544829041</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N18" t="n">
-        <v>182.2025718587802</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O18" t="n">
-        <v>166.6797570890445</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P18" t="n">
-        <v>133.7751998109171</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q18" t="n">
-        <v>89.42517835676723</v>
+        <v>60.29709682323505</v>
       </c>
       <c r="R18" t="n">
-        <v>43.49583647671788</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S18" t="n">
-        <v>13.01249417059198</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T18" t="n">
-        <v>2.823726598057623</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04608911748733882</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.58732143158729</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H19" t="n">
-        <v>5.221821455385182</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I19" t="n">
-        <v>17.66235723355233</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J19" t="n">
-        <v>41.5236252132214</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K19" t="n">
-        <v>68.23607177895968</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L19" t="n">
-        <v>87.31867901980493</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M19" t="n">
-        <v>92.06530404417855</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N19" t="n">
-        <v>89.87619689008054</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>83.01521471199261</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P19" t="n">
-        <v>71.03385750761184</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q19" t="n">
-        <v>49.18016096682299</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R19" t="n">
-        <v>26.40810727846123</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S19" t="n">
-        <v>10.23541076684395</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T19" t="n">
-        <v>2.509464298600238</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03203571445021586</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.309332382889892</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H20" t="n">
-        <v>13.40920026627111</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I20" t="n">
-        <v>50.4780366913626</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J20" t="n">
-        <v>111.1279493323011</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K20" t="n">
-        <v>166.5519891000302</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L20" t="n">
-        <v>206.6224700128968</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M20" t="n">
-        <v>229.9073097771149</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N20" t="n">
-        <v>233.6274504100008</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O20" t="n">
-        <v>220.6077765276394</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P20" t="n">
-        <v>188.2836333250452</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q20" t="n">
-        <v>141.3931673628009</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>82.24735029670724</v>
+        <v>95.39071536633794</v>
       </c>
       <c r="S20" t="n">
-        <v>29.83641167510344</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T20" t="n">
-        <v>5.731602506100504</v>
+        <v>6.647529206473551</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1047465906311913</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7005545858075498</v>
+        <v>0.8125052400141106</v>
       </c>
       <c r="H21" t="n">
-        <v>6.765882447141337</v>
+        <v>7.847090081188912</v>
       </c>
       <c r="I21" t="n">
-        <v>24.11997148504064</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K21" t="n">
-        <v>113.1242025687568</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L21" t="n">
-        <v>152.1094507473805</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M21" t="n">
-        <v>177.5045544829041</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N21" t="n">
-        <v>182.2025718587802</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O21" t="n">
-        <v>166.6797570890445</v>
+        <v>149.8971812516338</v>
       </c>
       <c r="P21" t="n">
-        <v>102.5490196189525</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>43.49583647671788</v>
+        <v>50.4465972703498</v>
       </c>
       <c r="S21" t="n">
-        <v>13.01249417059198</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T21" t="n">
-        <v>2.823726598057623</v>
+        <v>3.274966296372664</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04608911748733882</v>
+        <v>0.05345429210619151</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.58732143158729</v>
+        <v>0.6811770994078609</v>
       </c>
       <c r="H22" t="n">
-        <v>5.221821455385182</v>
+        <v>6.05628366564444</v>
       </c>
       <c r="I22" t="n">
-        <v>17.66235723355233</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J22" t="n">
-        <v>41.5236252132214</v>
+        <v>48.15922092813576</v>
       </c>
       <c r="K22" t="n">
-        <v>68.23607177895968</v>
+        <v>79.14039391302236</v>
       </c>
       <c r="L22" t="n">
-        <v>87.31867901980493</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M22" t="n">
-        <v>92.06530404417855</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N22" t="n">
-        <v>89.87619689008054</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>83.01521471199261</v>
+        <v>96.28128674175841</v>
       </c>
       <c r="P22" t="n">
-        <v>71.03385750761184</v>
+        <v>82.38527391383798</v>
       </c>
       <c r="Q22" t="n">
-        <v>49.18016096682299</v>
+        <v>57.03929329678006</v>
       </c>
       <c r="R22" t="n">
-        <v>26.40810727846123</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S22" t="n">
-        <v>10.23541076684395</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T22" t="n">
-        <v>2.509464298600238</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03203571445021586</v>
+        <v>0.03715511451315609</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,13 +32700,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H23" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
@@ -32724,22 +32724,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O23" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P23" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q23" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S23" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32779,19 +32779,19 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I24" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K24" t="n">
-        <v>87.78329382423905</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L24" t="n">
         <v>176.4169820478007</v>
@@ -32803,7 +32803,7 @@
         <v>211.31907117367</v>
       </c>
       <c r="O24" t="n">
-        <v>193.3156655923047</v>
+        <v>73.8798454939265</v>
       </c>
       <c r="P24" t="n">
         <v>155.1528646479577</v>
@@ -32812,16 +32812,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S24" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I25" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K25" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L25" t="n">
         <v>101.2724571246924</v>
@@ -32882,13 +32882,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P25" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R25" t="n">
         <v>30.62819939701163</v>
@@ -32897,7 +32897,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T25" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U25" t="n">
         <v>0.0371551145131561</v>
@@ -32937,13 +32937,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H26" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
@@ -32961,22 +32961,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O26" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P26" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q26" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S26" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33016,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I27" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33034,7 +33034,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M27" t="n">
-        <v>205.8702969983122</v>
+        <v>86.43447689993462</v>
       </c>
       <c r="N27" t="n">
         <v>211.31907117367</v>
@@ -33046,19 +33046,19 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q27" t="n">
-        <v>60.29709682323505</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S27" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,19 +33095,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I28" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K28" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L28" t="n">
         <v>101.2724571246924</v>
@@ -33119,13 +33119,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P28" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R28" t="n">
         <v>30.62819939701163</v>
@@ -33134,7 +33134,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T28" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U28" t="n">
         <v>0.0371551145131561</v>
@@ -33174,13 +33174,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H29" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
@@ -33198,22 +33198,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O29" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P29" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q29" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S29" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I30" t="n">
         <v>27.97441286890689</v>
@@ -33274,28 +33274,28 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N30" t="n">
-        <v>167.9005868329986</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O30" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P30" t="n">
-        <v>155.1528646479577</v>
+        <v>111.734380307287</v>
       </c>
       <c r="Q30" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S30" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T30" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,19 +33332,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I31" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K31" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L31" t="n">
         <v>101.2724571246924</v>
@@ -33356,13 +33356,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P31" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R31" t="n">
         <v>30.62819939701163</v>
@@ -33371,7 +33371,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T31" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U31" t="n">
         <v>0.0371551145131561</v>
@@ -33411,13 +33411,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H32" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
@@ -33435,22 +33435,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O32" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P32" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q32" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S32" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I33" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396475</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33520,19 +33520,19 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>60.29709682323551</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S33" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I34" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K34" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L34" t="n">
         <v>101.2724571246924</v>
@@ -33593,13 +33593,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P34" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R34" t="n">
         <v>30.62819939701163</v>
@@ -33608,7 +33608,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T34" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U34" t="n">
         <v>0.0371551145131561</v>
@@ -33648,13 +33648,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H35" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
@@ -33672,22 +33672,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O35" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P35" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q35" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S35" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33727,22 +33727,22 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I36" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>61.04368814949358</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L36" t="n">
-        <v>132.9984977071296</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M36" t="n">
         <v>205.8702969983122</v>
@@ -33757,19 +33757,19 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q36" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S36" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T36" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I37" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J37" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K37" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L37" t="n">
         <v>101.2724571246924</v>
@@ -33830,13 +33830,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P37" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R37" t="n">
         <v>30.62819939701163</v>
@@ -33845,7 +33845,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T37" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U37" t="n">
         <v>0.0371551145131561</v>
@@ -33885,13 +33885,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H38" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
@@ -33909,22 +33909,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O38" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P38" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q38" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S38" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I39" t="n">
         <v>27.97441286890689</v>
@@ -33991,22 +33991,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P39" t="n">
-        <v>155.1528646479577</v>
+        <v>111.734380307287</v>
       </c>
       <c r="Q39" t="n">
-        <v>60.29709682323505</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S39" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T39" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I40" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J40" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K40" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L40" t="n">
         <v>101.2724571246924</v>
@@ -34067,13 +34067,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P40" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R40" t="n">
         <v>30.62819939701163</v>
@@ -34082,7 +34082,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T40" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U40" t="n">
         <v>0.0371551145131561</v>
@@ -34122,13 +34122,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H41" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
@@ -34146,22 +34146,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P41" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q41" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S41" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34201,19 +34201,19 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I42" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396475</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
-        <v>131.2017781649102</v>
+        <v>87.78329382423951</v>
       </c>
       <c r="L42" t="n">
         <v>176.4169820478007</v>
@@ -34231,19 +34231,19 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S42" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I43" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L43" t="n">
         <v>101.2724571246924</v>
@@ -34304,13 +34304,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R43" t="n">
         <v>30.62819939701163</v>
@@ -34319,7 +34319,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T43" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U43" t="n">
         <v>0.0371551145131561</v>
@@ -34465,10 +34465,10 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P45" t="n">
-        <v>155.1528646479577</v>
+        <v>35.71704454957967</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
         <v>50.44659727034981</v>
@@ -34780,16 +34780,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>217.7067518141195</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
@@ -34798,7 +34798,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9091475161415</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35260,19 +35260,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35497,10 +35497,10 @@
         <v>248.6418854471727</v>
       </c>
       <c r="M12" t="n">
+        <v>30.51275400131219</v>
+      </c>
+      <c r="N12" t="n">
         <v>276.1565137023555</v>
-      </c>
-      <c r="N12" t="n">
-        <v>30.51275400131225</v>
       </c>
       <c r="O12" t="n">
         <v>269.1887005891756</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>99.17865997768854</v>
+        <v>59.29052642530579</v>
       </c>
       <c r="K14" t="n">
-        <v>270.6075506262144</v>
+        <v>210.8255783631306</v>
       </c>
       <c r="L14" t="n">
-        <v>388.51726959336</v>
+        <v>314.3524467174102</v>
       </c>
       <c r="M14" t="n">
-        <v>449.0746100426746</v>
+        <v>366.5519545616828</v>
       </c>
       <c r="N14" t="n">
-        <v>441.5613112253941</v>
+        <v>357.7033529039397</v>
       </c>
       <c r="O14" t="n">
-        <v>371.309746368698</v>
+        <v>292.1250542574854</v>
       </c>
       <c r="P14" t="n">
-        <v>278.8493457412583</v>
+        <v>211.2670430269376</v>
       </c>
       <c r="Q14" t="n">
-        <v>131.4024681482561</v>
+        <v>80.65097334385695</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>65.44045399339316</v>
+        <v>41.68335491066519</v>
       </c>
       <c r="K15" t="n">
-        <v>239.7480006069765</v>
+        <v>199.1433342995257</v>
       </c>
       <c r="L15" t="n">
-        <v>198.3036037288406</v>
+        <v>329.7974314935435</v>
       </c>
       <c r="M15" t="n">
-        <v>501.0755843108857</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N15" t="n">
-        <v>530.2032341190004</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O15" t="n">
-        <v>417.9458319213296</v>
+        <v>358.1179987687024</v>
       </c>
       <c r="P15" t="n">
-        <v>318.263561036524</v>
+        <v>222.3576043892834</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.5206920065948</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>45.96657995307683</v>
+        <v>21.47400575763108</v>
       </c>
       <c r="L16" t="n">
-        <v>114.9087042801211</v>
+        <v>83.56664180810856</v>
       </c>
       <c r="M16" t="n">
-        <v>131.6491810060191</v>
+        <v>98.6033706107084</v>
       </c>
       <c r="N16" t="n">
-        <v>134.0083692693091</v>
+        <v>101.7483143841809</v>
       </c>
       <c r="O16" t="n">
-        <v>107.6003426260323</v>
+        <v>77.80296049842738</v>
       </c>
       <c r="P16" t="n">
-        <v>68.31241677250533</v>
+        <v>42.81560870550923</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>99.17865997768854</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K17" t="n">
-        <v>270.6075506262144</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L17" t="n">
-        <v>388.51726959336</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M17" t="n">
-        <v>449.0746100426746</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N17" t="n">
-        <v>441.5613112253941</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O17" t="n">
-        <v>371.309746368698</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P17" t="n">
-        <v>278.8493457412583</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q17" t="n">
-        <v>131.4024681482561</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>239.7480006069765</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L18" t="n">
-        <v>263.7440577222337</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M18" t="n">
-        <v>501.0755843108857</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>530.2032341190004</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O18" t="n">
-        <v>417.9458319213296</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P18" t="n">
-        <v>318.263561036524</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.5206920065948</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>45.96657995307683</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L19" t="n">
-        <v>114.9087042801211</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M19" t="n">
-        <v>131.6491810060191</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N19" t="n">
-        <v>134.0083692693091</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O19" t="n">
-        <v>107.6003426260323</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P19" t="n">
-        <v>68.31241677250533</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>99.17865997768854</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K20" t="n">
-        <v>270.6075506262144</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L20" t="n">
-        <v>388.51726959336</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M20" t="n">
-        <v>449.0746100426746</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N20" t="n">
-        <v>441.5613112253941</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O20" t="n">
-        <v>371.309746368698</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P20" t="n">
-        <v>278.8493457412583</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q20" t="n">
-        <v>131.4024681482561</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>239.7480006069765</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L21" t="n">
-        <v>384.3954162709655</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M21" t="n">
-        <v>501.0755843108857</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N21" t="n">
-        <v>530.2032341190004</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O21" t="n">
-        <v>417.9458319213296</v>
+        <v>401.1632560839189</v>
       </c>
       <c r="P21" t="n">
-        <v>287.0373808445594</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>45.96657995307683</v>
+        <v>56.87090208713951</v>
       </c>
       <c r="L22" t="n">
-        <v>114.9087042801211</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M22" t="n">
-        <v>131.6491810060191</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N22" t="n">
-        <v>134.0083692693091</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O22" t="n">
-        <v>107.6003426260323</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P22" t="n">
-        <v>68.31241677250533</v>
+        <v>79.66383317873147</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36372,10 +36372,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O23" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P23" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q23" t="n">
         <v>153.9975062898689</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K24" t="n">
-        <v>214.4070918624587</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L24" t="n">
         <v>408.7029475713857</v>
@@ -36451,7 +36451,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O24" t="n">
-        <v>444.5817404245897</v>
+        <v>325.1459203262116</v>
       </c>
       <c r="P24" t="n">
         <v>339.6412258735646</v>
@@ -36518,7 +36518,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L25" t="n">
         <v>128.8624823850085</v>
@@ -36533,7 +36533,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P25" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36609,10 +36609,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O26" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P26" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q26" t="n">
         <v>153.9975062898689</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
@@ -36682,19 +36682,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M27" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N27" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O27" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36755,7 +36755,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L28" t="n">
         <v>128.8624823850085</v>
@@ -36770,7 +36770,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P28" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36846,10 +36846,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O29" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P29" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q29" t="n">
         <v>153.9975062898689</v>
@@ -36922,13 +36922,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>515.9012490932188</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O30" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328939</v>
       </c>
       <c r="Q30" t="n">
         <v>173.8110948137341</v>
@@ -36992,7 +36992,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L31" t="n">
         <v>128.8624823850085</v>
@@ -37007,7 +37007,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P31" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37083,10 +37083,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O32" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P32" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q32" t="n">
         <v>153.9975062898689</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
@@ -37162,13 +37162,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O33" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>54.37527471535575</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37229,7 +37229,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L34" t="n">
         <v>128.8624823850085</v>
@@ -37244,7 +37244,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P34" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37320,10 +37320,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O35" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P35" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q35" t="n">
         <v>153.9975062898689</v>
@@ -37384,13 +37384,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>60.29709682323572</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L36" t="n">
-        <v>365.2844632307146</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M36" t="n">
         <v>529.4413268262938</v>
@@ -37399,13 +37399,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O36" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37466,7 +37466,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L37" t="n">
         <v>128.8624823850085</v>
@@ -37481,7 +37481,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P37" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37557,10 +37557,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O38" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P38" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q38" t="n">
         <v>153.9975062898689</v>
@@ -37636,13 +37636,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328939</v>
       </c>
       <c r="Q39" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37703,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L40" t="n">
         <v>128.8624823850085</v>
@@ -37718,7 +37718,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P40" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37794,10 +37794,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P41" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q41" t="n">
         <v>153.9975062898689</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L42" t="n">
         <v>408.7029475713857</v>
@@ -37873,13 +37873,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O42" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L43" t="n">
         <v>128.8624823850085</v>
@@ -37955,7 +37955,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38113,10 +38113,10 @@
         <v>444.5817404245897</v>
       </c>
       <c r="P45" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q45" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
